--- a/12BC_Team7_Diner.xlsx
+++ b/12BC_Team7_Diner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\CyberSoft FE\.Homeworks\BOOTSTRAP\12BC_Team7_Diner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EEFA87-C499-4C8E-9257-BB56DC24ED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8ABFB-17B2-4B99-8C34-94003B31A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Landing Page</t>
-  </si>
-  <si>
     <t>Team 7</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Trần Thiên Trung</t>
+  </si>
+  <si>
+    <t>Làm tốt</t>
   </si>
 </sst>
 </file>
@@ -452,6 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -467,7 +468,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B62C61-1CB2-47CC-A1E2-F116A2894326}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,20 +737,22 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="28">
+      <c r="D2" s="23">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="str">
-        <f>D13</f>
-        <v>Phan Chí Toàn</v>
+        <f>D14</f>
+        <v>Trần Thiên Trung</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="28">
+      <c r="H2" s="23">
         <v>1</v>
       </c>
       <c r="I2" s="22"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
@@ -758,20 +760,22 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="28">
+      <c r="D3" s="23">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="str">
-        <f t="shared" ref="E3:E4" si="0">D14</f>
+        <f t="shared" ref="E3:E4" si="0">D13</f>
         <v>Trần Đoàn Thanh Hậu</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="28">
+      <c r="H3" s="23">
         <v>1</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
@@ -779,7 +783,7 @@
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="28">
+      <c r="D4" s="23">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="str">
@@ -788,11 +792,13 @@
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="28">
+      <c r="H4" s="23">
         <v>1</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
@@ -800,17 +806,22 @@
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
+      <c r="D5" s="23">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="str">
+        <f>D12</f>
+        <v>Phan Chí Toàn</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="28">
+      <c r="H5" s="23">
         <v>1</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -818,17 +829,22 @@
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f>D12</f>
+        <v>Phan Chí Toàn</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="28">
+      <c r="H6" s="23">
         <v>1</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -836,70 +852,57 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11" t="str">
+        <f>D13</f>
+        <v>Trần Đoàn Thanh Hậu</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="28">
+      <c r="H7" s="23">
         <v>1</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="C12" s="27"/>
+      <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C13" s="26"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C14" s="26"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C15" s="27"/>
-      <c r="D15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17"/>
+      <c r="E14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/12BC_Team7_Diner.xlsx
+++ b/12BC_Team7_Diner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\CyberSoft FE\.Homeworks\BOOTSTRAP\12BC_Team7_Diner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8ABFB-17B2-4B99-8C34-94003B31A338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DADEC22-5153-4742-A777-58D3BA0519E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diner" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Làm tốt</t>
+  </si>
+  <si>
+    <t>28/05</t>
+  </si>
+  <si>
+    <t>24/05</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -418,9 +424,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,12 +446,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -467,6 +464,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,13 +701,13 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="29" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
@@ -703,201 +718,209 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="str">
+      <c r="B2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="str">
         <f>D14</f>
         <v>Trần Thiên Trung</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="23">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22"/>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="19"/>
       <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="str">
+      <c r="B3" s="26"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="str">
         <f t="shared" ref="E3:E4" si="0">D13</f>
         <v>Trần Đoàn Thanh Hậu</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22"/>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19"/>
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="23">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="str">
+      <c r="B4" s="26"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Trần Thiên Trung</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="23">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22"/>
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19"/>
       <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="23">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="str">
+      <c r="B5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="str">
         <f>D12</f>
         <v>Phan Chí Toàn</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="23">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22"/>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19"/>
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="str">
+      <c r="B6" s="26"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <f>D12</f>
         <v>Phan Chí Toàn</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="23">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22"/>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19"/>
       <c r="J6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="str">
+      <c r="B7" s="26"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="str">
         <f>D13</f>
         <v>Trần Đoàn Thanh Hậu</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="23">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22"/>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19"/>
       <c r="J7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C12" s="27"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C13" s="27"/>
-      <c r="D13" s="18" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C14" s="28"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/12BC_Team7_Diner.xlsx
+++ b/12BC_Team7_Diner.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\CyberSoft FE\.Homeworks\BOOTSTRAP\12BC_Team7_Diner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DADEC22-5153-4742-A777-58D3BA0519E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D00AFB-141B-48F2-A87B-B8AD71AEFDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diner" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>24/05</t>
+  </si>
+  <si>
+    <t>29/05</t>
   </si>
 </sst>
 </file>
@@ -450,6 +453,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -464,24 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,13 +704,13 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="29" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="24" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
@@ -718,10 +721,10 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -750,10 +753,10 @@
       <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="20">
@@ -777,8 +780,8 @@
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="20">
         <v>1</v>
       </c>
@@ -800,8 +803,12 @@
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="20">
         <v>1</v>
       </c>
@@ -823,8 +830,8 @@
       <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="20">
         <v>1</v>
       </c>
@@ -846,8 +853,8 @@
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="30"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="20">
         <v>1</v>
       </c>
@@ -869,8 +876,8 @@
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="30"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="20">
         <v>1</v>
       </c>
@@ -889,34 +896,34 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="28"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="28"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="18" t="s">
         <v>19</v>
       </c>

--- a/12BC_Team7_Diner.xlsx
+++ b/12BC_Team7_Diner.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\CyberSoft FE\.Homeworks\BOOTSTRAP\12BC_Team7_Diner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EEFA87-C499-4C8E-9257-BB56DC24ED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D00AFB-141B-48F2-A87B-B8AD71AEFDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diner" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Landing Page</t>
-  </si>
-  <si>
     <t>Team 7</t>
   </si>
   <si>
@@ -104,6 +101,18 @@
   </si>
   <si>
     <t>Trần Thiên Trung</t>
+  </si>
+  <si>
+    <t>Làm tốt</t>
+  </si>
+  <si>
+    <t>28/05</t>
+  </si>
+  <si>
+    <t>24/05</t>
+  </si>
+  <si>
+    <t>29/05</t>
   </si>
 </sst>
 </file>
@@ -408,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -418,9 +427,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -443,15 +449,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -467,7 +486,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,16 +701,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B62C61-1CB2-47CC-A1E2-F116A2894326}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="24" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
@@ -703,203 +721,218 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="28">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="str">
-        <f>D13</f>
-        <v>Phan Chí Toàn</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="B2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f>D14</f>
+        <v>Trần Thiên Trung</v>
+      </c>
+      <c r="F2" s="12"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="28">
-        <v>1</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="str">
-        <f t="shared" ref="E3:E4" si="0">D14</f>
+      <c r="B3" s="21"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f t="shared" ref="E3:E4" si="0">D13</f>
         <v>Trần Đoàn Thanh Hậu</v>
       </c>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="28">
-        <v>1</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="str">
+      <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="str">
         <f t="shared" si="0"/>
         <v>Trần Thiên Trung</v>
       </c>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="28">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f>D12</f>
+        <v>Phan Chí Toàn</v>
+      </c>
+      <c r="F5" s="12"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="28">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>D12</f>
+        <v>Phan Chí Toàn</v>
+      </c>
+      <c r="F6" s="12"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="28">
-        <v>1</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="20">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f>D13</f>
+        <v>Trần Đoàn Thanh Hậu</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="28">
-        <v>1</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C12" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="24"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C13" s="26"/>
-      <c r="D13" s="18" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C14" s="26"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="18" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="C15" s="27"/>
-      <c r="D15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/12BC_Team7_Diner.xlsx
+++ b/12BC_Team7_Diner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\CyberSoft FE\.Homeworks\BOOTSTRAP\12BC_Team7_Diner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D00AFB-141B-48F2-A87B-B8AD71AEFDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFB5CF7-5845-4FCD-B67A-2F3ADB7DAFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3255" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>29/05</t>
+  </si>
+  <si>
+    <t>30/05</t>
   </si>
 </sst>
 </file>
@@ -417,11 +420,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -438,20 +440,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +480,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,233 +711,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6B62C61-1CB2-47CC-A1E2-F116A2894326}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="24" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="20" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="7" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="6" max="7" width="10.625" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9" t="str">
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="str">
         <f>D14</f>
         <v>Trần Thiên Trung</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="20">
-        <v>1</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="4" t="s">
+      <c r="F2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="str">
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E4" si="0">D13</f>
         <v>Trần Đoàn Thanh Hậu</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="20">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="4" t="s">
+      <c r="F3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="str">
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Trần Thiên Trung</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="20">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="4" t="s">
+      <c r="F4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="str">
+      <c r="B5" s="17"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="str">
         <f>D12</f>
         <v>Phan Chí Toàn</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="4" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="str">
+      <c r="B6" s="17"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="str">
         <f>D12</f>
         <v>Phan Chí Toàn</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="20">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="4" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="str">
+      <c r="B7" s="17"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="str">
         <f>D13</f>
         <v>Trần Đoàn Thanh Hậu</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="4" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="29" t="s">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="17" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="19"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="17" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="19"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="18" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
